--- a/Documentation/Iteration Estimated Effort Boheme.xlsx
+++ b/Documentation/Iteration Estimated Effort Boheme.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri.sharepoint.com/sites/WebDevelopmentGroup6-Ogrp/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{4B31B934-7528-4506-BBB7-8DEB4F4C3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41F24630-592E-4D50-A67C-0E582311C3C6}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{4B31B934-7528-4506-BBB7-8DEB4F4C3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{676F2054-56A2-4CF9-AAA0-4863350ADCB5}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration Estimated Effort" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Roles:</t>
   </si>
@@ -155,6 +156,9 @@
     <t>Reach out to Lisa about attaining website information/pictures</t>
   </si>
   <si>
+    <t>Update client on current progress</t>
+  </si>
+  <si>
     <t>Development</t>
   </si>
   <si>
@@ -176,6 +180,9 @@
     <t>Add new pictures and product information</t>
   </si>
   <si>
+    <t>Mathewos, Sarah</t>
+  </si>
+  <si>
     <t>Test for bugs</t>
   </si>
   <si>
@@ -189,6 +196,12 @@
   </si>
   <si>
     <t>Iteration 2:</t>
+  </si>
+  <si>
+    <t>Show Lisa our changes and get feedback</t>
+  </si>
+  <si>
+    <t>Look into rearranging layout of pages</t>
   </si>
   <si>
     <t>Iteration 3:</t>
@@ -202,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1437,11 +1450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3780D-DA57-40C0-877A-BA93E4C45E36}">
   <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
@@ -1453,38 +1466,40 @@
     <col min="8" max="8" width="11.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="16" width="9" style="7" customWidth="1"/>
-    <col min="17" max="32" width="9.140625" style="4"/>
+    <col min="11" max="12" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="9.140625" style="4"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="31.5">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="31.5">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="8" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1497,13 +1512,11 @@
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="5"/>
+      <c r="O6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -1520,7 +1533,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="8" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1531,13 +1544,11 @@
       <c r="H7" s="135"/>
       <c r="I7" s="133"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="116"/>
       <c r="N7" s="116"/>
       <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -1554,7 +1565,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="11" customFormat="1" ht="47.25">
       <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
@@ -1567,21 +1578,19 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
+      <c r="K8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>8</v>
+      </c>
       <c r="M8" s="50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="50" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="6"/>
@@ -1600,7 +1609,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="11" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1623,21 +1632,19 @@
         <v>16</v>
       </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="M9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1654,7 +1661,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="11" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1673,21 +1680,19 @@
         <v>18</v>
       </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="K10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="M10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="25"/>
+      <c r="O10" s="25"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1704,7 +1709,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="8" customFormat="1">
       <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
@@ -1717,13 +1722,11 @@
       <c r="H11" s="31"/>
       <c r="I11" s="141"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
       <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="40"/>
+      <c r="O11" s="40"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1740,7 +1743,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="8" customFormat="1">
       <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
@@ -1758,16 +1761,14 @@
       <c r="H12" s="136"/>
       <c r="I12" s="140">
         <f>SUM(H13:H15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="38"/>
+      <c r="O12" s="38"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1784,7 +1785,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="8" customFormat="1">
       <c r="A13" s="33"/>
       <c r="B13" s="39"/>
       <c r="C13" s="28" t="s">
@@ -1801,19 +1802,17 @@
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="137">
-        <f>Q13</f>
+        <f>O13</f>
         <v>0</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53">
-        <f>SUM(M13:P13)</f>
+      <c r="O13" s="53">
+        <f>SUM(K13:N13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="5"/>
@@ -1832,7 +1831,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="8" customFormat="1">
       <c r="A14" s="33"/>
       <c r="B14" s="39"/>
       <c r="C14" s="28" t="s">
@@ -1849,20 +1848,20 @@
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="137">
-        <f t="shared" ref="H14:H15" si="0">Q14</f>
-        <v>0</v>
+        <f>O14</f>
+        <v>0.5</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53">
-        <f t="shared" ref="Q14:Q15" si="1">SUM(M14:P14)</f>
-        <v>0</v>
+      <c r="N14" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="53">
+        <f t="shared" ref="O14:O15" si="0">SUM(K14:N14)</f>
+        <v>0.5</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -1880,7 +1879,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="8" customFormat="1">
       <c r="A15" s="33"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42" t="s">
@@ -1897,20 +1896,20 @@
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>O15</f>
+        <v>0.5</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
       <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N15" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="53">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -1928,7 +1927,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="8" customFormat="1">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
         <v>28</v>
@@ -1944,16 +1943,14 @@
       <c r="H16" s="138"/>
       <c r="I16" s="140">
         <f>SUM(H17:H21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="38"/>
+      <c r="O16" s="38"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -1970,7 +1967,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="8" customFormat="1" ht="31.5">
       <c r="A17" s="33"/>
       <c r="B17" s="39"/>
       <c r="C17" s="28" t="s">
@@ -1987,20 +1984,20 @@
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="137">
-        <f t="shared" ref="H17:H21" si="2">Q17</f>
-        <v>0</v>
+        <f>O17</f>
+        <v>1</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53">
-        <f t="shared" ref="Q17:Q21" si="3">SUM(M17:P17)</f>
-        <v>0</v>
+      <c r="N17" s="53">
+        <v>1</v>
+      </c>
+      <c r="O17" s="53">
+        <f t="shared" ref="O17:O21" si="1">SUM(K17:N17)</f>
+        <v>1</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2018,7 +2015,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="8" customFormat="1">
       <c r="A18" s="33"/>
       <c r="B18" s="39"/>
       <c r="C18" s="28"/>
@@ -2027,19 +2024,17 @@
       <c r="F18" s="31"/>
       <c r="G18" s="40"/>
       <c r="H18" s="137">
-        <f t="shared" si="2"/>
+        <f>O18</f>
         <v>0</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53">
-        <f t="shared" si="3"/>
+      <c r="O18" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="5"/>
@@ -2058,7 +2053,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="8" customFormat="1">
       <c r="A19" s="33"/>
       <c r="B19" s="39"/>
       <c r="C19" s="28"/>
@@ -2067,19 +2062,17 @@
       <c r="F19" s="31"/>
       <c r="G19" s="40"/>
       <c r="H19" s="137">
-        <f t="shared" si="2"/>
+        <f>O19</f>
         <v>0</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53">
-        <f t="shared" si="3"/>
+      <c r="O19" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="5"/>
@@ -2098,7 +2091,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="8" customFormat="1">
       <c r="A20" s="33"/>
       <c r="B20" s="39"/>
       <c r="C20" s="28"/>
@@ -2107,19 +2100,17 @@
       <c r="F20" s="31"/>
       <c r="G20" s="40"/>
       <c r="H20" s="137">
-        <f t="shared" si="2"/>
+        <f>O20</f>
         <v>0</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53">
-        <f t="shared" si="3"/>
+      <c r="O20" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="5"/>
@@ -2138,7 +2129,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="8" customFormat="1">
       <c r="A21" s="33"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2147,19 +2138,17 @@
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
       <c r="H21" s="137">
-        <f t="shared" si="2"/>
+        <f>O21</f>
         <v>0</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53">
-        <f t="shared" si="3"/>
+      <c r="O21" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="5"/>
@@ -2178,7 +2167,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" s="54" t="s">
         <v>31</v>
       </c>
@@ -2191,15 +2180,13 @@
       <c r="H22" s="57"/>
       <c r="I22" s="60"/>
       <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="57"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="61"/>
-    </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="61"/>
+    </row>
+    <row r="23" spans="1:32" s="1" customFormat="1">
       <c r="A23" s="64" t="s">
         <v>32</v>
       </c>
@@ -2217,16 +2204,14 @@
       <c r="H23" s="138"/>
       <c r="I23" s="140">
         <f>SUM(H24:H25)</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="123"/>
       <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
@@ -2243,7 +2228,7 @@
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
     </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" s="1" customFormat="1">
       <c r="A24" s="64"/>
       <c r="B24" s="65"/>
       <c r="C24" s="66" t="s">
@@ -2260,20 +2245,22 @@
       </c>
       <c r="G24" s="70"/>
       <c r="H24" s="124">
-        <f>Q24</f>
-        <v>0</v>
+        <f>O24</f>
+        <v>2</v>
       </c>
       <c r="I24" s="70"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="K24" s="124">
+        <v>1</v>
+      </c>
+      <c r="L24" s="124"/>
       <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="71">
-        <f>SUM(M24:P24)</f>
-        <v>0</v>
+      <c r="N24" s="124">
+        <v>1</v>
+      </c>
+      <c r="O24" s="71">
+        <f>SUM(K24:N24)</f>
+        <v>2</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
@@ -2291,7 +2278,7 @@
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="1" customFormat="1">
       <c r="A25" s="64"/>
       <c r="B25" s="65"/>
       <c r="C25" s="66" t="s">
@@ -2308,20 +2295,22 @@
       </c>
       <c r="G25" s="70"/>
       <c r="H25" s="124">
-        <f>Q25</f>
-        <v>0</v>
+        <f>O25</f>
+        <v>1.25</v>
       </c>
       <c r="I25" s="70"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="124">
+        <v>1</v>
+      </c>
+      <c r="L25" s="124"/>
       <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="71">
-        <f>SUM(M25:P25)</f>
-        <v>0</v>
+      <c r="N25" s="124">
+        <v>0.25</v>
+      </c>
+      <c r="O25" s="71">
+        <f>SUM(K25:N25)</f>
+        <v>1.25</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
@@ -2339,7 +2328,7 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="1" customFormat="1">
       <c r="A26" s="64"/>
       <c r="B26" s="34" t="s">
         <v>39</v>
@@ -2350,21 +2339,19 @@
       <c r="F26" s="47"/>
       <c r="G26" s="37">
         <f>SUM(F27:F28)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="138"/>
       <c r="I26" s="140">
         <f>SUM(H27:H28)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
       <c r="M26" s="123"/>
       <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="63"/>
+      <c r="O26" s="63"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
@@ -2381,7 +2368,7 @@
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="31.5">
       <c r="A27" s="64"/>
       <c r="B27" s="65"/>
       <c r="C27" s="66" t="s">
@@ -2398,51 +2385,57 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="124">
-        <f t="shared" ref="H27:H28" si="4">Q27</f>
-        <v>0</v>
+        <f>O27</f>
+        <v>1.5</v>
       </c>
       <c r="I27" s="70"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
+      <c r="K27" s="124">
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="124"/>
       <c r="M27" s="124"/>
       <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="71">
-        <f>SUM(M27:P27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O27" s="71">
+        <f>SUM(K27:N27)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="64"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>23</v>
+      </c>
       <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="F28" s="69">
+        <v>0.5</v>
+      </c>
       <c r="G28" s="70"/>
       <c r="H28" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>O28</f>
+        <v>1</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
+      <c r="K28" s="124">
+        <v>1</v>
+      </c>
+      <c r="L28" s="124"/>
       <c r="M28" s="124"/>
       <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="71">
-        <f>SUM(M28:P28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O28" s="71">
+        <f>SUM(K28:N28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="64"/>
       <c r="B29" s="72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="36"/>
@@ -2455,22 +2448,20 @@
       <c r="H29" s="138"/>
       <c r="I29" s="140">
         <f>SUM(H30:H35)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="123"/>
       <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="63"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="64"/>
       <c r="B30" s="80"/>
       <c r="C30" s="66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>35</v>
@@ -2481,62 +2472,64 @@
       <c r="F30" s="15">
         <v>1</v>
       </c>
-      <c r="G30" s="70"/>
+      <c r="G30" s="70">
+        <v>0.5</v>
+      </c>
       <c r="H30" s="124">
-        <f t="shared" ref="H30:H35" si="5">Q30</f>
-        <v>0</v>
+        <f>O30</f>
+        <v>0.5</v>
       </c>
       <c r="I30" s="70"/>
       <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
+      <c r="K30" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="124"/>
       <c r="M30" s="124"/>
       <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="71">
-        <f t="shared" ref="Q30:Q35" si="6">SUM(M30:P30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O30" s="71">
+        <f t="shared" ref="O30:O35" si="2">SUM(K30:N30)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="64"/>
       <c r="B31" s="65"/>
       <c r="C31" s="66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="15">
         <v>3</v>
       </c>
       <c r="G31" s="70"/>
       <c r="H31" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O31</f>
+        <v>1</v>
       </c>
       <c r="I31" s="70"/>
       <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124">
+        <v>1</v>
+      </c>
       <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O31" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="64"/>
       <c r="B32" s="65"/>
       <c r="C32" s="66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>35</v>
@@ -2549,27 +2542,27 @@
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O32</f>
+        <v>1</v>
       </c>
       <c r="I32" s="70"/>
       <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
       <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="N32" s="124">
+        <v>1</v>
+      </c>
+      <c r="O32" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="31.5">
       <c r="A33" s="64"/>
       <c r="B33" s="65"/>
       <c r="C33" s="66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>35</v>
@@ -2582,57 +2575,62 @@
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="70"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124">
+        <v>0.5</v>
+      </c>
       <c r="M33" s="124"/>
       <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="O33" s="71">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="31.5">
       <c r="A34" s="64"/>
       <c r="B34" s="65"/>
       <c r="C34" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F34" s="15">
         <v>3</v>
       </c>
       <c r="G34" s="70"/>
       <c r="H34" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O34</f>
+        <v>2</v>
       </c>
       <c r="I34" s="70"/>
-      <c r="M34" s="124"/>
+      <c r="K34" s="124">
+        <v>1</v>
+      </c>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124">
+        <v>1</v>
+      </c>
       <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O34" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="64"/>
       <c r="B35" s="73"/>
       <c r="C35" s="66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="83" t="s">
         <v>9</v>
@@ -2642,23 +2640,25 @@
       </c>
       <c r="G35" s="70"/>
       <c r="H35" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O35</f>
+        <v>1</v>
       </c>
       <c r="I35" s="70"/>
-      <c r="M35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124">
+        <v>1</v>
+      </c>
       <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O35" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="64"/>
       <c r="B36" s="72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="36"/>
@@ -2671,22 +2671,20 @@
       <c r="H36" s="138"/>
       <c r="I36" s="140">
         <f>SUM(H37:H39)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
       <c r="M36" s="123"/>
       <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="63"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O36" s="63"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="64"/>
       <c r="B37" s="65"/>
       <c r="C37" s="66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>35</v>
@@ -2699,23 +2697,25 @@
       </c>
       <c r="G37" s="70"/>
       <c r="H37" s="124">
-        <f t="shared" ref="H37:H39" si="7">Q37</f>
-        <v>0</v>
+        <f>O37</f>
+        <v>2</v>
       </c>
       <c r="I37" s="70"/>
       <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
+      <c r="K37" s="124">
+        <v>1</v>
+      </c>
+      <c r="L37" s="124"/>
       <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="71">
-        <f t="shared" ref="Q37:Q39" si="8">SUM(M37:P37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N37" s="124">
+        <v>1</v>
+      </c>
+      <c r="O37" s="71">
+        <f t="shared" ref="O37:O39" si="3">SUM(K37:N37)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="14"/>
       <c r="B38" s="65"/>
       <c r="C38" s="66"/>
@@ -2724,23 +2724,21 @@
       <c r="F38" s="69"/>
       <c r="G38" s="70"/>
       <c r="H38" s="124">
-        <f t="shared" si="7"/>
+        <f>O38</f>
         <v>0</v>
       </c>
       <c r="I38" s="70"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
       <c r="M38" s="124"/>
       <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O38" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="14"/>
       <c r="B39" s="73"/>
       <c r="C39" s="76"/>
@@ -2749,25 +2747,23 @@
       <c r="F39" s="79"/>
       <c r="G39" s="74"/>
       <c r="H39" s="124">
-        <f t="shared" si="7"/>
+        <f>O39</f>
         <v>0</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
       <c r="M39" s="124"/>
       <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="1" customFormat="1">
       <c r="A40" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" s="84"/>
       <c r="C40" s="28"/>
@@ -2778,13 +2774,11 @@
       <c r="H40" s="125"/>
       <c r="I40" s="40"/>
       <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="126"/>
-      <c r="O40" s="126"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="85"/>
+      <c r="O40" s="85"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
@@ -2801,16 +2795,18 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32">
       <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37"/>
       <c r="F41" s="34"/>
       <c r="G41" s="38">
         <f>SUM(F42:F45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="136"/>
       <c r="I41" s="38">
@@ -2818,65 +2814,73 @@
         <v>0</v>
       </c>
       <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
       <c r="M41" s="86"/>
       <c r="N41" s="86"/>
       <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="33"/>
       <c r="B42" s="39"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
+      <c r="C42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
       <c r="G42" s="40"/>
       <c r="H42" s="137">
-        <f t="shared" ref="H42:H45" si="9">Q42</f>
+        <f>O42</f>
         <v>0</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
       <c r="M42" s="53"/>
       <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53">
-        <f t="shared" ref="Q42:Q45" si="10">SUM(M42:P42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O42" s="53">
+        <f t="shared" ref="O42:O45" si="4">SUM(K42:N42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="31.5">
       <c r="A43" s="33"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
+      <c r="C43" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="F43" s="31"/>
       <c r="G43" s="40"/>
       <c r="H43" s="137">
-        <f t="shared" si="9"/>
+        <f>O43</f>
         <v>0</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
       <c r="M43" s="53"/>
       <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O43" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="33"/>
       <c r="B44" s="39"/>
       <c r="C44" s="28"/>
@@ -2885,23 +2889,21 @@
       <c r="F44" s="31"/>
       <c r="G44" s="40"/>
       <c r="H44" s="137">
-        <f t="shared" si="9"/>
+        <f>O44</f>
         <v>0</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
       <c r="M44" s="53"/>
       <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O44" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="33"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -2910,32 +2912,32 @@
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
       <c r="H45" s="137">
-        <f t="shared" si="9"/>
+        <f>O45</f>
         <v>0</v>
       </c>
       <c r="I45" s="46"/>
       <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
       <c r="M45" s="127"/>
       <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O45" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="C46" s="35"/>
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
       <c r="F46" s="47"/>
       <c r="G46" s="38">
         <f>SUM(F47:F51)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H46" s="138"/>
       <c r="I46" s="38">
@@ -2943,65 +2945,75 @@
         <v>0</v>
       </c>
       <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
       <c r="M46" s="86"/>
       <c r="N46" s="86"/>
       <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="33"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="C47" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1.5</v>
+      </c>
       <c r="G47" s="40"/>
       <c r="H47" s="137">
-        <f t="shared" ref="H47:H51" si="11">Q47</f>
+        <f>O47</f>
         <v>0</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
       <c r="M47" s="53"/>
       <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53">
-        <f t="shared" ref="Q47:Q51" si="12">SUM(M47:P47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O47" s="53">
+        <f t="shared" ref="O47:O51" si="5">SUM(K47:N47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="31.5">
       <c r="A48" s="33"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="C48" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="31">
+        <v>8</v>
+      </c>
       <c r="G48" s="40"/>
       <c r="H48" s="137">
-        <f t="shared" si="11"/>
+        <f>O48</f>
         <v>0</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
       <c r="M48" s="53"/>
       <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O48" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="33"/>
       <c r="B49" s="39"/>
       <c r="C49" s="28"/>
@@ -3010,23 +3022,21 @@
       <c r="F49" s="31"/>
       <c r="G49" s="40"/>
       <c r="H49" s="137">
-        <f t="shared" si="11"/>
+        <f>O49</f>
         <v>0</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
       <c r="M49" s="53"/>
       <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O49" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="33"/>
       <c r="B50" s="39"/>
       <c r="C50" s="28"/>
@@ -3035,23 +3045,21 @@
       <c r="F50" s="31"/>
       <c r="G50" s="40"/>
       <c r="H50" s="137">
-        <f t="shared" si="11"/>
+        <f>O50</f>
         <v>0</v>
       </c>
       <c r="I50" s="40"/>
       <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
       <c r="M50" s="53"/>
       <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O50" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="33"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
@@ -3060,23 +3068,21 @@
       <c r="F51" s="45"/>
       <c r="G51" s="46"/>
       <c r="H51" s="137">
-        <f t="shared" si="11"/>
+        <f>O51</f>
         <v>0</v>
       </c>
       <c r="I51" s="46"/>
       <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
       <c r="M51" s="127"/>
       <c r="N51" s="127"/>
-      <c r="O51" s="127"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O51" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="35"/>
@@ -3093,15 +3099,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
       <c r="M52" s="86"/>
       <c r="N52" s="86"/>
       <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="33"/>
       <c r="B53" s="39"/>
       <c r="C53" s="28"/>
@@ -3110,23 +3114,21 @@
       <c r="F53" s="31"/>
       <c r="G53" s="40"/>
       <c r="H53" s="137">
-        <f t="shared" ref="H53:H55" si="13">Q53</f>
+        <f>O53</f>
         <v>0</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
       <c r="M53" s="53"/>
       <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53">
-        <f t="shared" ref="Q53:Q55" si="14">SUM(M53:P53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O53" s="53">
+        <f t="shared" ref="O53:O55" si="6">SUM(K53:N53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="33"/>
       <c r="B54" s="39"/>
       <c r="C54" s="28"/>
@@ -3135,23 +3137,21 @@
       <c r="F54" s="31"/>
       <c r="G54" s="40"/>
       <c r="H54" s="137">
-        <f t="shared" si="13"/>
+        <f>O54</f>
         <v>0</v>
       </c>
       <c r="I54" s="40"/>
       <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
       <c r="M54" s="53"/>
       <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O54" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="33"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
@@ -3160,25 +3160,23 @@
       <c r="F55" s="45"/>
       <c r="G55" s="46"/>
       <c r="H55" s="137">
-        <f t="shared" si="13"/>
+        <f>O55</f>
         <v>0</v>
       </c>
       <c r="I55" s="46"/>
       <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="127"/>
       <c r="N55" s="127"/>
-      <c r="O55" s="127"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="53">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="1" customFormat="1">
       <c r="A56" s="54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -3189,13 +3187,11 @@
       <c r="H56" s="57"/>
       <c r="I56" s="59"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="122"/>
       <c r="N56" s="57"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="61"/>
+      <c r="O56" s="61"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
@@ -3212,7 +3208,7 @@
       <c r="AE56" s="12"/>
       <c r="AF56" s="12"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32">
       <c r="A57" s="87"/>
       <c r="B57" s="34"/>
       <c r="C57" s="35"/>
@@ -3229,15 +3225,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="86"/>
       <c r="M57" s="86"/>
       <c r="N57" s="86"/>
       <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="64"/>
       <c r="B58" s="65"/>
       <c r="C58" s="88"/>
@@ -3246,23 +3240,21 @@
       <c r="F58" s="90"/>
       <c r="G58" s="70"/>
       <c r="H58" s="124">
-        <f t="shared" ref="H58:H60" si="15">Q58</f>
+        <f>O58</f>
         <v>0</v>
       </c>
       <c r="I58" s="70"/>
       <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
       <c r="M58" s="128"/>
       <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="71">
-        <f t="shared" ref="Q58:Q60" si="16">SUM(M58:P58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O58" s="71">
+        <f t="shared" ref="O58:O60" si="7">SUM(K58:N58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="64"/>
       <c r="B59" s="65"/>
       <c r="C59" s="88"/>
@@ -3271,23 +3263,21 @@
       <c r="F59" s="90"/>
       <c r="G59" s="70"/>
       <c r="H59" s="124">
-        <f t="shared" si="15"/>
+        <f>O59</f>
         <v>0</v>
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
       <c r="M59" s="128"/>
       <c r="N59" s="128"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="71">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O59" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="64"/>
       <c r="B60" s="73"/>
       <c r="C60" s="92"/>
@@ -3296,23 +3286,21 @@
       <c r="F60" s="94"/>
       <c r="G60" s="74"/>
       <c r="H60" s="124">
-        <f t="shared" si="15"/>
+        <f>O60</f>
         <v>0</v>
       </c>
       <c r="I60" s="74"/>
       <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
       <c r="M60" s="129"/>
       <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="71">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O60" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="64"/>
       <c r="B61" s="34"/>
       <c r="C61" s="35"/>
@@ -3329,15 +3317,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
       <c r="M61" s="86"/>
       <c r="N61" s="86"/>
       <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
-      <c r="Q61" s="86"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="64"/>
       <c r="B62" s="65"/>
       <c r="C62" s="88"/>
@@ -3346,23 +3332,21 @@
       <c r="F62" s="90"/>
       <c r="G62" s="70"/>
       <c r="H62" s="124">
-        <f t="shared" ref="H62:H66" si="17">Q62</f>
+        <f>O62</f>
         <v>0</v>
       </c>
       <c r="I62" s="70"/>
       <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="128"/>
       <c r="M62" s="128"/>
       <c r="N62" s="128"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="71">
-        <f t="shared" ref="Q62:Q66" si="18">SUM(M62:P62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O62" s="71">
+        <f t="shared" ref="O62:O66" si="8">SUM(K62:N62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="64"/>
       <c r="B63" s="65"/>
       <c r="C63" s="88"/>
@@ -3371,23 +3355,21 @@
       <c r="F63" s="90"/>
       <c r="G63" s="70"/>
       <c r="H63" s="124">
-        <f t="shared" si="17"/>
+        <f>O63</f>
         <v>0</v>
       </c>
       <c r="I63" s="70"/>
       <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
       <c r="M63" s="128"/>
       <c r="N63" s="128"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="128"/>
-      <c r="Q63" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O63" s="71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="64"/>
       <c r="B64" s="65"/>
       <c r="C64" s="88"/>
@@ -3396,23 +3378,21 @@
       <c r="F64" s="90"/>
       <c r="G64" s="70"/>
       <c r="H64" s="124">
-        <f t="shared" si="17"/>
+        <f>O64</f>
         <v>0</v>
       </c>
       <c r="I64" s="70"/>
       <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="128"/>
       <c r="M64" s="128"/>
       <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O64" s="71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="64"/>
       <c r="B65" s="65"/>
       <c r="C65" s="88"/>
@@ -3421,23 +3401,21 @@
       <c r="F65" s="90"/>
       <c r="G65" s="70"/>
       <c r="H65" s="124">
-        <f t="shared" si="17"/>
+        <f>O65</f>
         <v>0</v>
       </c>
       <c r="I65" s="70"/>
       <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
       <c r="M65" s="128"/>
       <c r="N65" s="128"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O65" s="71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="64"/>
       <c r="B66" s="73"/>
       <c r="C66" s="92"/>
@@ -3446,23 +3424,21 @@
       <c r="F66" s="94"/>
       <c r="G66" s="74"/>
       <c r="H66" s="124">
-        <f t="shared" si="17"/>
+        <f>O66</f>
         <v>0</v>
       </c>
       <c r="I66" s="74"/>
       <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="129"/>
       <c r="M66" s="129"/>
       <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
-      <c r="Q66" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O66" s="71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="64"/>
       <c r="B67" s="95"/>
       <c r="C67" s="96"/>
@@ -3479,15 +3455,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
       <c r="M67" s="100"/>
       <c r="N67" s="100"/>
       <c r="O67" s="100"/>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="100"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="87"/>
       <c r="B68" s="101"/>
       <c r="C68" s="102"/>
@@ -3496,23 +3470,21 @@
       <c r="F68" s="105"/>
       <c r="G68" s="106"/>
       <c r="H68" s="124">
-        <f t="shared" ref="H68:H69" si="19">Q68</f>
+        <f>O68</f>
         <v>0</v>
       </c>
       <c r="I68" s="107"/>
       <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
-      <c r="Q68" s="71">
-        <f t="shared" ref="Q68:Q69" si="20">SUM(M68:P68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O68" s="71">
+        <f t="shared" ref="O68:O69" si="9">SUM(K68:N68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="108"/>
       <c r="B69" s="73"/>
       <c r="C69" s="92"/>
@@ -3521,23 +3493,21 @@
       <c r="F69" s="94"/>
       <c r="G69" s="74"/>
       <c r="H69" s="124">
-        <f t="shared" si="19"/>
+        <f>O69</f>
         <v>0</v>
       </c>
       <c r="I69" s="74"/>
       <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="129"/>
       <c r="M69" s="129"/>
       <c r="N69" s="129"/>
-      <c r="O69" s="129"/>
-      <c r="P69" s="129"/>
-      <c r="Q69" s="71">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="13" customFormat="1">
       <c r="A70" s="110" t="s">
         <v>11</v>
       </c>
@@ -3547,39 +3517,37 @@
       <c r="E70" s="112"/>
       <c r="F70" s="113">
         <f>SUM(F11:F69)</f>
-        <v>26.5</v>
+        <v>37.5</v>
       </c>
       <c r="G70" s="114"/>
       <c r="H70" s="131">
         <f>SUM(H11:H69)</f>
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="I70" s="114"/>
       <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
+      <c r="K70" s="131">
+        <f>SUM(K11:K69)</f>
+        <v>7</v>
+      </c>
+      <c r="L70" s="131">
+        <f t="shared" ref="L70:N70" si="10">SUM(L11:L69)</f>
+        <v>0.5</v>
+      </c>
       <c r="M70" s="131">
-        <f>SUM(M11:M69)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="N70" s="131">
-        <f t="shared" ref="N70:P70" si="21">SUM(N11:N69)</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="131">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="131">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="113">
-        <f>SUM(M70:P70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5.25</v>
+      </c>
+      <c r="O70" s="113">
+        <f>SUM(K70:N70)</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A71" s="133"/>
       <c r="B71" s="133"/>
       <c r="C71" s="133"/>
@@ -3589,13 +3557,13 @@
       <c r="G71" s="133"/>
       <c r="H71" s="133"/>
       <c r="I71" s="133"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
       <c r="M71" s="132"/>
       <c r="N71" s="132"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="132"/>
-      <c r="Q71" s="133"/>
-    </row>
-    <row r="72" spans="1:17" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O71" s="133"/>
+    </row>
+    <row r="72" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A72" s="133"/>
       <c r="B72" s="133"/>
       <c r="C72" s="133"/>
@@ -3605,13 +3573,13 @@
       <c r="G72" s="133"/>
       <c r="H72" s="133"/>
       <c r="I72" s="133"/>
+      <c r="K72" s="132"/>
+      <c r="L72" s="132"/>
       <c r="M72" s="132"/>
       <c r="N72" s="132"/>
-      <c r="O72" s="132"/>
-      <c r="P72" s="132"/>
-      <c r="Q72" s="133"/>
-    </row>
-    <row r="73" spans="1:17" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O72" s="133"/>
+    </row>
+    <row r="73" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A73" s="133"/>
       <c r="B73" s="133"/>
       <c r="C73" s="133"/>
@@ -3621,15 +3589,15 @@
       <c r="G73" s="133"/>
       <c r="H73" s="133"/>
       <c r="I73" s="133"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
       <c r="M73" s="132"/>
       <c r="N73" s="132"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="132"/>
-      <c r="Q73" s="133"/>
+      <c r="O73" s="133"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 M1:P1048576">
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 K1:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3656,8 +3624,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="936f91413d56867dbe7cbbe8b60cc985">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="595f9894fb95a0fbc4d1305179277713" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="923d3de022c04703f3b8c37e28f5fa4d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="274310c734e9a52fb53e3c2bbc742399" ns2:_="">
     <xsd:import namespace="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -3667,6 +3635,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3685,6 +3657,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3788,43 +3782,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F514FB37-A478-4D5A-AAC7-63ABC45E8927}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F514FB37-A478-4D5A-AAC7-63ABC45E8927}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8696B8-C121-40C2-8E55-9E2E3CF78CE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8696B8-C121-40C2-8E55-9E2E3CF78CE7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79C1661-FA9C-470E-94AF-12EC6499A6F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8448770-9C22-48EC-B8E8-F41706AD6B12}"/>
 </file>
--- a/Documentation/Iteration Estimated Effort Boheme.xlsx
+++ b/Documentation/Iteration Estimated Effort Boheme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri.sharepoint.com/sites/WebDevelopmentGroup6-Ogrp/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{4B31B934-7528-4506-BBB7-8DEB4F4C3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{676F2054-56A2-4CF9-AAA0-4863350ADCB5}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{4B31B934-7528-4506-BBB7-8DEB4F4C3ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB80D35D-CDCD-4BCF-8941-B58DDC749228}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Roles:</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Iteration 3:</t>
+  </si>
+  <si>
+    <t>Communicate with Lisa about any other changes she might want for the site</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3780D-DA57-40C0-877A-BA93E4C45E36}">
   <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2811,7 +2814,7 @@
       <c r="H41" s="136"/>
       <c r="I41" s="38">
         <f>SUM(H42:H45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="86"/>
@@ -2838,17 +2841,19 @@
       <c r="G42" s="40"/>
       <c r="H42" s="137">
         <f>O42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="53"/>
+      <c r="K42" s="53">
+        <v>1</v>
+      </c>
       <c r="L42" s="53"/>
       <c r="M42" s="53"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53">
         <f t="shared" ref="O42:O45" si="4">SUM(K42:N42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="31.5">
@@ -2867,17 +2872,19 @@
       <c r="G43" s="40"/>
       <c r="H43" s="137">
         <f>O43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="51"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="53">
+        <v>1</v>
+      </c>
       <c r="L43" s="53"/>
       <c r="M43" s="53"/>
       <c r="N43" s="53"/>
       <c r="O43" s="53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -2942,7 +2949,7 @@
       <c r="H46" s="138"/>
       <c r="I46" s="38">
         <f>SUM(H47:H51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="51"/>
       <c r="K46" s="86"/>
@@ -3000,17 +3007,21 @@
       <c r="G48" s="40"/>
       <c r="H48" s="137">
         <f>O48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="51"/>
-      <c r="K48" s="53"/>
+      <c r="K48" s="53">
+        <v>0.5</v>
+      </c>
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
+      <c r="N48" s="53">
+        <v>0.5</v>
+      </c>
       <c r="O48" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -3210,14 +3221,16 @@
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="87"/>
-      <c r="B57" s="34"/>
+      <c r="B57" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="E57" s="37"/>
       <c r="F57" s="47"/>
       <c r="G57" s="38">
         <f>SUM(F58:F60)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="138"/>
       <c r="I57" s="38">
@@ -3231,13 +3244,21 @@
       <c r="N57" s="86"/>
       <c r="O57" s="86"/>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" ht="47.25">
       <c r="A58" s="64"/>
       <c r="B58" s="65"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="90"/>
+      <c r="C58" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="90">
+        <v>0.5</v>
+      </c>
       <c r="G58" s="70"/>
       <c r="H58" s="124">
         <f>O58</f>
@@ -3517,18 +3538,18 @@
       <c r="E70" s="112"/>
       <c r="F70" s="113">
         <f>SUM(F11:F69)</f>
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="G70" s="114"/>
       <c r="H70" s="131">
         <f>SUM(H11:H69)</f>
-        <v>15.75</v>
+        <v>18.75</v>
       </c>
       <c r="I70" s="114"/>
       <c r="J70" s="115"/>
       <c r="K70" s="131">
         <f>SUM(K11:K69)</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L70" s="131">
         <f t="shared" ref="L70:N70" si="10">SUM(L11:L69)</f>
@@ -3540,11 +3561,11 @@
       </c>
       <c r="N70" s="131">
         <f t="shared" si="10"/>
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O70" s="113">
         <f>SUM(K70:N70)</f>
-        <v>15.75</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="10" customFormat="1" ht="15">
@@ -3609,24 +3630,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="923d3de022c04703f3b8c37e28f5fa4d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="274310c734e9a52fb53e3c2bbc742399" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4fcb440f308f8c944493030d375c185">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" xmlns:ns3="69516d1f-8af6-4970-84f0-5fd3512d559d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a86bc8658d8502f2d7ab04fd112a396" ns2:_="" ns3:_="">
     <xsd:import namespace="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
+    <xsd:import namespace="69516d1f-8af6-4970-84f0-5fd3512d559d"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3639,6 +3646,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3679,6 +3688,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69516d1f-8af6-4970-84f0-5fd3512d559d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3781,14 +3820,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7661BC6B-9544-4185-A21E-774641F92644}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F514FB37-A478-4D5A-AAC7-63ABC45E8927}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8696B8-C121-40C2-8E55-9E2E3CF78CE7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8448770-9C22-48EC-B8E8-F41706AD6B12}"/>
 </file>